--- a/data/output/FV2404_FV2310/REMADV/33003.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2186" uniqueCount="244">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="244">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -928,6 +928,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U101" totalsRowShown="0">
+  <autoFilter ref="A1:U101"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1217,7 +1247,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5913,5 +5946,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/REMADV/33003.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33003.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2548" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="342">
   <si>
     <t>#</t>
   </si>
@@ -5627,50 +5627,48 @@
       <c r="V81" s="9"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K82" s="5" t="s">
+      <c r="K82" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="L82" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="V82" s="5" t="s">
+      <c r="V82" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5702,9 +5700,7 @@
         <v>193</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>37</v>
       </c>
@@ -5758,9 +5754,7 @@
       <c r="K84" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="L84" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>37</v>
       </c>
@@ -5862,9 +5856,7 @@
         <v>193</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>38</v>
       </c>
@@ -5918,9 +5910,7 @@
       <c r="K87" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="L87" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>38</v>
       </c>
@@ -5947,50 +5937,48 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
+      <c r="A88" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="K88" s="5" t="s">
+      <c r="K88" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L88" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N88" s="5" t="s">
+      <c r="N88" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O88" s="5" t="s">
+      <c r="O88" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="V88" s="5" t="s">
+      <c r="V88" s="2" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6022,9 +6010,7 @@
         <v>193</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>39</v>
       </c>
@@ -6078,9 +6064,7 @@
       <c r="K90" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="L90" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>39</v>
       </c>
@@ -6107,50 +6091,48 @@
       </c>
     </row>
     <row r="91" spans="1:22">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K91" s="5" t="s">
+      <c r="K91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="L91" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M91" s="5" t="s">
+      <c r="L91" s="4"/>
+      <c r="M91" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N91" s="5" t="s">
+      <c r="N91" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O91" s="5" t="s">
+      <c r="O91" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-      <c r="U91" s="5" t="s">
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="V91" s="5" t="s">
+      <c r="V91" s="2" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6182,9 +6164,7 @@
         <v>193</v>
       </c>
       <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L92" s="4"/>
       <c r="M92" s="5" t="s">
         <v>40</v>
       </c>
@@ -6238,9 +6218,7 @@
       <c r="K93" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L93" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>40</v>
       </c>
@@ -6267,44 +6245,42 @@
       </c>
     </row>
     <row r="94" spans="1:22">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K94" s="5"/>
-      <c r="L94" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M94" s="5" t="s">
+      <c r="K94" s="2"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5" t="s">
+      <c r="N94" s="2"/>
+      <c r="O94" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-      <c r="U94" s="5" t="s">
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V94" s="5"/>
+      <c r="V94" s="2"/>
     </row>
     <row r="95" spans="1:22">
       <c r="A95" s="5" t="s">
@@ -6332,9 +6308,7 @@
         <v>193</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>41</v>
       </c>
@@ -6359,44 +6333,42 @@
       <c r="V95" s="5"/>
     </row>
     <row r="96" spans="1:22">
-      <c r="A96" s="5" t="s">
+      <c r="A96" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5" t="s">
+      <c r="C96" s="2"/>
+      <c r="D96" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M96" s="5" t="s">
+      <c r="K96" s="2"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5" t="s">
+      <c r="N96" s="2"/>
+      <c r="O96" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-      <c r="U96" s="5" t="s">
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V96" s="5"/>
+      <c r="V96" s="2"/>
     </row>
     <row r="97" spans="1:22">
       <c r="A97" s="5" t="s">
@@ -6424,9 +6396,7 @@
         <v>193</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>42</v>
       </c>
@@ -6476,9 +6446,7 @@
       <c r="K98" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>42</v>
       </c>
@@ -6503,44 +6471,42 @@
       </c>
     </row>
     <row r="99" spans="1:22">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5" t="s">
+      <c r="C99" s="2"/>
+      <c r="D99" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M99" s="5" t="s">
+      <c r="K99" s="2"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5" t="s">
+      <c r="N99" s="2"/>
+      <c r="O99" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5" t="s">
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="V99" s="5"/>
+      <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:22">
       <c r="A100" s="5" t="s">
@@ -6566,9 +6532,7 @@
         <v>193</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>43</v>
       </c>
@@ -6614,9 +6578,7 @@
         <v>193</v>
       </c>
       <c r="K101" s="5"/>
-      <c r="L101" s="7" t="s">
-        <v>232</v>
-      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="5" t="s">
         <v>43</v>
       </c>

--- a/data/output/FV2404_FV2310/REMADV/33003.xlsx
+++ b/data/output/FV2404_FV2310/REMADV/33003.xlsx
@@ -1677,7 +1677,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2335,7 +2335,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="K19" s="2"/>
       <c r="L19" s="4"/>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N19" s="2" t="s">
@@ -2771,7 +2771,7 @@
         <v>216</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -2959,7 +2959,7 @@
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3323,7 +3323,7 @@
       </c>
       <c r="K36" s="2"/>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3619,7 +3619,7 @@
       </c>
       <c r="K42" s="2"/>
       <c r="L42" s="4"/>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N42" s="2" t="s">
@@ -3861,7 +3861,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4213,7 +4213,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4363,7 +4363,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4513,7 +4513,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4695,24 +4695,24 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>201</v>
       </c>
       <c r="K64" s="6" t="s">
@@ -4721,21 +4721,21 @@
       <c r="L64" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>201</v>
       </c>
       <c r="V64" s="6" t="s">
@@ -4873,7 +4873,7 @@
         <v>222</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5651,7 +5651,7 @@
         <v>224</v>
       </c>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -5781,23 +5781,23 @@
       </c>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
       <c r="J85" s="6" t="s">
         <v>208</v>
       </c>
@@ -5807,20 +5807,20 @@
       <c r="L85" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M85" s="5" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
       <c r="U85" s="6" t="s">
         <v>241</v>
       </c>
@@ -5961,7 +5961,7 @@
         <v>228</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6115,7 +6115,7 @@
         <v>230</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="K94" s="2"/>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N94" s="2"/>
@@ -6353,7 +6353,7 @@
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="4"/>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N96" s="2"/>
@@ -6491,7 +6491,7 @@
       </c>
       <c r="K99" s="2"/>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N99" s="2"/>
